--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value773.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value773.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.023717346014328</v>
+        <v>15</v>
       </c>
       <c r="B1">
-        <v>3.05257950377387</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>3.836524273333931</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.16310400046704</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>1.184259091559107</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
